--- a/导表工具/H-个人活动配置.xlsx
+++ b/导表工具/H-个人活动配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\h10-d\trunk\表格导出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="类型3" sheetId="3" r:id="rId5"/>
     <sheet name="类型9" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -29,13 +24,12 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -43,13 +37,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -57,13 +50,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -72,13 +64,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -86,13 +77,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>默认不填值则为使用之前相同活动的皮肤
@@ -112,13 +102,12 @@
     <author>kdsjfhg</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -126,13 +115,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="1" shapeId="0">
+    <comment ref="G5" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0为开服时间，
@@ -141,13 +129,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="2" shapeId="0">
+    <comment ref="K5" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">kdsjfhg:
@@ -167,13 +154,12 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -193,13 +179,12 @@
     <author>kdsjfhg</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -209,13 +194,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment ref="I5" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>kdsjfhg:
@@ -240,26 +224,24 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1：转盘；2：元旦爆竹；3：暖冬转盘</t>
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -268,13 +250,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:
@@ -287,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="212">
   <si>
     <t>导出类型</t>
   </si>
@@ -325,6 +306,9 @@
     <t>等级</t>
   </si>
   <si>
+    <t>开服天数</t>
+  </si>
+  <si>
     <t>转生</t>
   </si>
   <si>
@@ -352,6 +336,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -364,6 +351,9 @@
     <t>lv</t>
   </si>
   <si>
+    <t>sdate</t>
+  </si>
+  <si>
     <t>zslv</t>
   </si>
   <si>
@@ -406,6 +396,9 @@
     <t>战灵-达标活动</t>
   </si>
   <si>
+    <t>"战灵-达标活动"</t>
+  </si>
+  <si>
     <t>"活动期间，满足条件可以领取对应奖励。"</t>
   </si>
   <si>
@@ -424,6 +417,12 @@
     <t>"战灵限购礼"</t>
   </si>
   <si>
+    <t>战灵累充返利</t>
+  </si>
+  <si>
+    <t>"累充返利"</t>
+  </si>
+  <si>
     <t>PActivityBtnConfig={</t>
   </si>
   <si>
@@ -481,24 +480,27 @@
     <t>showType</t>
   </si>
   <si>
-    <t>"icon_leichongfanli"</t>
+    <t>"new_icon_leijifanli_png"</t>
   </si>
   <si>
     <t>"biaoti_leichongfanli"</t>
   </si>
   <si>
-    <t>"icon_xiangou"</t>
+    <t>"new_new_icon_xiangoulibao_pnglibao_png"</t>
   </si>
   <si>
     <t>"biaoti_xiangou"</t>
   </si>
   <si>
-    <t>"icon_zhanlingjingji"</t>
+    <t>"new_icon_zhanlingjingji_png"</t>
   </si>
   <si>
     <t>"biaoti_zhanlingjingji"</t>
   </si>
   <si>
+    <t>"new_icon_xingyunzhuanpan_png"</t>
+  </si>
+  <si>
     <t>"biaoti_xingyunzhuanpan"</t>
   </si>
   <si>
@@ -571,9 +573,6 @@
     <t>公告ID</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -784,6 +783,18 @@
     <t>{{type=1,id=201106,count=5},{type=1,id=204033,count=1},{type=1,id=200004,count=10}}</t>
   </si>
   <si>
+    <t>{{type=1,id=204154,count=1},{type=1,id=205001,count=1},{type=1,id=205000,count=20}}</t>
+  </si>
+  <si>
+    <t>{head="累充返利奖励",context="恭喜您满足累充返利活动领取条件,请收取附件奖励"}</t>
+  </si>
+  <si>
+    <t>{{type=1,id=204155,count=1},{type=1,id=205002,count=1},{type=1,id=205000,count=40}}</t>
+  </si>
+  <si>
+    <t>{{type=1,id=205003,count=1},{type=1,id=205002,count=1},{type=1,id=205000,count=40}}</t>
+  </si>
+  <si>
     <t>PActivityType9Config={</t>
   </si>
   <si>
@@ -893,53 +904,19 @@
   </si>
   <si>
     <t>{[1]=0,[10]=20,[50]=0}</t>
-  </si>
-  <si>
-    <t>战灵累充返利</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>"累充返利"</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>"战灵-达标活动"</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>{head="累充返利奖励",context="恭喜您满足累充返利活动领取条件,请收取附件奖励"}</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{type=1,id=204154,count=1},{type=1,id=205001,count=1},{type=1,id=205000,count=20}}</t>
-  </si>
-  <si>
-    <t>{{type=1,id=204155,count=1},{type=1,id=205002,count=1},{type=1,id=205000,count=40}}</t>
-  </si>
-  <si>
-    <t>{{type=1,id=205003,count=1},{type=1,id=205002,count=1},{type=1,id=205000,count=40}}</t>
-  </si>
-  <si>
-    <t>"icon_xingyunzhuanpan"</t>
-  </si>
-  <si>
-    <t>开服天数</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdate</t>
-    <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,7 +929,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -961,7 +937,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -970,21 +945,18 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -992,14 +964,12 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1007,34 +977,29 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1042,7 +1007,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1050,78 +1014,68 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1129,7 +1083,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1138,21 +1091,20 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1160,13 +1112,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1174,7 +1125,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1182,53 +1132,184 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,13 +1318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7993408001953185"/>
+        <fgColor theme="3" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,12 +1396,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79967650379955446"/>
+        <fgColor theme="9" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1485,18 +1752,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1660,6 +2169,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,19 +2190,19 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1708,19 +2220,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,16 +2246,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,22 +2273,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1785,7 +2297,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1797,13 +2309,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1815,7 +2327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,7 +2342,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1839,10 +2351,10 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1851,14 +2363,11 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1866,19 +2375,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1917,9 +2426,6 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1929,45 +2435,92 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
-    <cellStyle name="我的公式" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="我的公式" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1981,7 +2534,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2016,7 +2569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2051,7 +2604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2254,32 +2807,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="117" customWidth="1"/>
-    <col min="2" max="2" width="9" style="117"/>
+    <col min="1" max="1" width="16.125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9" style="53"/>
     <col min="3" max="4" width="9" style="124"/>
     <col min="5" max="5" width="15.125" style="124" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="124" customWidth="1"/>
     <col min="7" max="7" width="9" style="124"/>
     <col min="8" max="8" width="14.25" style="124" customWidth="1"/>
     <col min="9" max="9" width="38.875" style="124" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="117"/>
+    <col min="10" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="1" ht="12.75" spans="1:6">
       <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2848,7 @@
       </c>
       <c r="F1" s="127"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="2" ht="12.75" spans="1:6">
       <c r="A2" s="125" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2864,7 @@
       </c>
       <c r="F2" s="132"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="3" ht="12.75" spans="1:6">
       <c r="A3" s="125" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2876,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="135"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="136" t="s">
         <v>9</v>
       </c>
@@ -2334,112 +2887,112 @@
         <v>11</v>
       </c>
       <c r="D5" s="136" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="E5" s="136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="136" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="I5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="146" t="s">
+      <c r="J5" s="143" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="138" t="s">
+      <c r="K5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="138" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="138" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="138" t="s">
+      <c r="B6" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="C6" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="D6" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="137" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="138" t="s">
+      <c r="F6" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="J6" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="138" t="s">
+      <c r="B7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="C7" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="D7" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="E7" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="F7" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="138" t="s">
+      <c r="G7" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="148" t="s">
+      <c r="H7" s="137" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="122" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="139" t="s">
+      <c r="I7" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="109">
+      <c r="J7" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="146" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" s="122" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A8" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="110">
         <v>5001</v>
       </c>
       <c r="C8" s="124"/>
       <c r="E8" s="124">
         <v>7</v>
       </c>
-      <c r="F8" s="140">
+      <c r="F8" s="139">
         <v>3</v>
       </c>
       <c r="G8" s="124">
@@ -2448,45 +3001,45 @@
       <c r="H8" s="124">
         <v>72</v>
       </c>
-      <c r="I8" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="123" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="113">
+      <c r="I8" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="147" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" s="123" customFormat="1" ht="17.25" spans="1:10">
+      <c r="A9" s="140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="114">
         <v>5002</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="E9" s="143">
+      <c r="C9" s="141"/>
+      <c r="E9" s="141">
         <v>7</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="142">
         <v>2</v>
       </c>
-      <c r="G9" s="143">
+      <c r="G9" s="141">
         <v>1</v>
       </c>
-      <c r="H9" s="143">
+      <c r="H9" s="141">
         <v>72</v>
       </c>
-      <c r="I9" s="145" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="145" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="117">
+      <c r="I9" s="148" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="53">
         <v>5003</v>
       </c>
       <c r="D10" s="124">
@@ -2505,17 +3058,17 @@
         <v>72</v>
       </c>
       <c r="I10" s="124" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="J10" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="117">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="53">
         <v>5004</v>
       </c>
       <c r="D11" s="124">
@@ -2534,89 +3087,90 @@
         <v>72</v>
       </c>
       <c r="I11" s="124" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="123" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="117">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="123" customFormat="1" ht="12.75" spans="1:10">
+      <c r="A12" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="53">
         <v>5005</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143">
+      <c r="C12" s="141"/>
+      <c r="D12" s="141">
         <v>15</v>
       </c>
-      <c r="E12" s="143">
+      <c r="E12" s="141">
         <v>5</v>
       </c>
-      <c r="F12" s="144">
+      <c r="F12" s="142">
         <v>2</v>
       </c>
-      <c r="G12" s="143">
+      <c r="G12" s="141">
         <v>1</v>
       </c>
-      <c r="H12" s="143">
+      <c r="H12" s="141">
         <v>72</v>
       </c>
-      <c r="I12" s="145" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="145" t="s">
+      <c r="I12" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" s="123" customFormat="1" ht="12.75" spans="1:10">
+      <c r="A13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="53">
+        <v>5006</v>
+      </c>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141">
+        <v>15</v>
+      </c>
+      <c r="E13" s="141">
+        <v>5</v>
+      </c>
+      <c r="F13" s="142">
+        <v>3</v>
+      </c>
+      <c r="G13" s="141">
+        <v>1</v>
+      </c>
+      <c r="H13" s="141">
+        <v>72</v>
+      </c>
+      <c r="I13" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="148" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="123" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="117">
-        <v>5006</v>
-      </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143">
-        <v>15</v>
-      </c>
-      <c r="E13" s="143">
-        <v>5</v>
-      </c>
-      <c r="F13" s="144">
-        <v>3</v>
-      </c>
-      <c r="G13" s="143">
-        <v>1</v>
-      </c>
-      <c r="H13" s="143">
-        <v>72</v>
-      </c>
-      <c r="I13" s="145" t="s">
-        <v>203</v>
-      </c>
-      <c r="J13" s="145" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
@@ -2626,7 +3180,7 @@
     <col min="10" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" s="27" customFormat="1" ht="16.5" spans="1:6">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2634,23 +3188,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="31"/>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" s="27" customFormat="1" ht="16.5" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="104" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="35" t="s">
@@ -2658,7 +3212,7 @@
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" s="27" customFormat="1" ht="16.5" spans="1:6">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -2670,199 +3224,199 @@
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
+    <row r="4" s="27" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
     </row>
-    <row r="5" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+    <row r="5" s="27" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="56" t="s">
+      <c r="B5" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="C5" s="56" t="s">
         <v>54</v>
       </c>
+      <c r="D5" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>60</v>
+      </c>
       <c r="K5" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="27" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A6" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="27" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>63</v>
       </c>
+      <c r="E7" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="100" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="109">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="101" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A8" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="110">
         <v>5001</v>
       </c>
-      <c r="C8" s="110">
+      <c r="C8" s="111">
         <v>2</v>
       </c>
-      <c r="D8" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="108">
+      <c r="D8" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="109">
         <v>3</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="109">
         <v>1</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111">
+      <c r="H8" s="112"/>
+      <c r="I8" s="112">
         <v>1</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110">
+      <c r="J8" s="111"/>
+      <c r="K8" s="111">
         <v>1</v>
       </c>
-      <c r="L8" s="110"/>
-    </row>
-    <row r="9" spans="1:12" s="101" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="113">
+      <c r="L8" s="111"/>
+    </row>
+    <row r="9" s="102" customFormat="1" ht="17.25" spans="1:12">
+      <c r="A9" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="114">
         <v>5002</v>
       </c>
-      <c r="C9" s="114">
+      <c r="C9" s="115">
         <v>3</v>
       </c>
-      <c r="D9" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="115">
+      <c r="D9" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="116">
         <v>2</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="116">
         <v>1</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116">
+      <c r="H9" s="117"/>
+      <c r="I9" s="117">
         <v>1</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114">
+      <c r="J9" s="115"/>
+      <c r="K9" s="115">
         <v>1</v>
       </c>
-      <c r="L9" s="114"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="117">
+      <c r="L9" s="115"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:11">
+      <c r="A10" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="53">
         <v>5003</v>
       </c>
       <c r="C10" s="118">
         <v>4</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E10" s="119" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F10" s="118">
         <v>1</v>
@@ -2877,9 +3431,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="102" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" s="103" customFormat="1" ht="16.5" spans="1:11">
       <c r="A11" s="120" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" s="120">
         <v>5004</v>
@@ -2888,10 +3442,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F11" s="121">
         <v>9</v>
@@ -2906,91 +3460,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="101" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="113">
+    <row r="12" s="102" customFormat="1" ht="17.25" spans="1:12">
+      <c r="A12" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="114">
         <v>5005</v>
       </c>
-      <c r="C12" s="114">
+      <c r="C12" s="115">
         <v>3</v>
       </c>
-      <c r="D12" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="115">
+      <c r="D12" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="116">
         <v>2</v>
       </c>
-      <c r="G12" s="115">
+      <c r="G12" s="116">
         <v>1</v>
       </c>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116">
+      <c r="H12" s="117"/>
+      <c r="I12" s="117">
         <v>1</v>
       </c>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114">
+      <c r="J12" s="115"/>
+      <c r="K12" s="115">
         <v>1</v>
       </c>
-      <c r="L12" s="114"/>
-    </row>
-    <row r="13" spans="1:12" s="100" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="109">
+      <c r="L12" s="115"/>
+    </row>
+    <row r="13" s="101" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="110">
         <v>5006</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="111">
         <v>2</v>
       </c>
-      <c r="D13" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="108">
+      <c r="D13" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="109">
         <v>3</v>
       </c>
-      <c r="G13" s="108">
+      <c r="G13" s="109">
         <v>1</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111">
+      <c r="H13" s="112"/>
+      <c r="I13" s="112">
         <v>1</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110">
+      <c r="J13" s="111"/>
+      <c r="K13" s="111">
         <v>1</v>
       </c>
-      <c r="L13" s="110"/>
+      <c r="L13" s="111"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="17" max="17" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" ht="13.5" spans="1:19">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -3012,19 +3567,19 @@
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="84"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
       <c r="S1" s="34"/>
     </row>
-    <row r="2" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="13.5" spans="1:19">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
@@ -3041,14 +3596,14 @@
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="13.5" spans="1:19">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -3067,219 +3622,219 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
-      <c r="O3" s="86"/>
+      <c r="O3" s="87"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="80"/>
-    </row>
-    <row r="5" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+      <c r="S3" s="95"/>
+    </row>
+    <row r="4" ht="13.5" spans="1:19">
+      <c r="A4" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="81"/>
+    </row>
+    <row r="5" ht="13.5" spans="1:19">
+      <c r="A5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="F5" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="89" t="s">
+      <c r="G5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="90" t="s">
+      <c r="H5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="I5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="95" t="s">
+      <c r="J5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="K5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="S5" s="56" t="s">
+      <c r="L5" s="57" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="57" t="s">
+      <c r="M5" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" spans="1:19">
+      <c r="A6" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="E6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="92" t="s">
+      <c r="F6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="G6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="57" t="s">
+    </row>
+    <row r="7" ht="13.5" spans="1:19">
+      <c r="A7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="E7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="F7" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="G7" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="H7" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="93" t="s">
+      <c r="I7" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="97" t="s">
+      <c r="J7" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="57" t="s">
+      <c r="K7" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="L7" s="58" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M7" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="2:19">
       <c r="B8">
         <v>5003</v>
       </c>
@@ -3292,13 +3847,13 @@
       <c r="P8">
         <v>9</v>
       </c>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="99"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="100"/>
+    </row>
+    <row r="9" ht="13.5" spans="2:19">
       <c r="B9">
         <v>5003</v>
       </c>
@@ -3311,13 +3866,13 @@
       <c r="P9">
         <v>9</v>
       </c>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" s="99"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="Q9" s="99"/>
+      <c r="R9" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="100"/>
+    </row>
+    <row r="10" ht="13.5" spans="2:19">
       <c r="B10">
         <v>5003</v>
       </c>
@@ -3330,13 +3885,13 @@
       <c r="P10">
         <v>9</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="99"/>
-    </row>
-    <row r="11" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="S10" s="100"/>
+    </row>
+    <row r="11" ht="13.5" spans="2:19">
       <c r="B11">
         <v>5003</v>
       </c>
@@ -3349,13 +3904,13 @@
       <c r="P11">
         <v>9</v>
       </c>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="S11" s="99"/>
-    </row>
-    <row r="12" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="Q11" s="99"/>
+      <c r="R11" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="S11" s="100"/>
+    </row>
+    <row r="12" ht="13.5" spans="2:19">
       <c r="B12">
         <v>5003</v>
       </c>
@@ -3368,13 +3923,13 @@
       <c r="P12">
         <v>9</v>
       </c>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="S12" s="99"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="Q12" s="99"/>
+      <c r="R12" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="100"/>
+    </row>
+    <row r="13" ht="13.5" spans="2:19">
       <c r="B13">
         <v>5003</v>
       </c>
@@ -3387,33 +3942,34 @@
       <c r="P13">
         <v>9</v>
       </c>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="S13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="100"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="11" max="11" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3425,16 +3981,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
@@ -3445,7 +4001,7 @@
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -3457,818 +4013,819 @@
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="59">
+        <v>5002</v>
+      </c>
+      <c r="C8" s="59">
+        <v>1</v>
+      </c>
+      <c r="D8" s="60">
+        <v>0</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <v>2</v>
+      </c>
+      <c r="G8" s="60">
+        <v>3888</v>
+      </c>
+      <c r="H8" s="60">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="60">
+        <v>1</v>
+      </c>
+      <c r="J8" s="60">
         <v>77</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="O7" s="67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="58">
-        <v>5002</v>
-      </c>
-      <c r="C8" s="58">
+      <c r="K8" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70">
         <v>1</v>
       </c>
-      <c r="D8" s="59">
+      <c r="N8" s="70"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AC8" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD8" s="77">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="77">
+        <v>1000</v>
+      </c>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77">
         <v>0</v>
       </c>
-      <c r="E8" s="58">
-        <v>0</v>
-      </c>
-      <c r="F8" s="60">
-        <v>2</v>
-      </c>
-      <c r="G8" s="59">
-        <v>3888</v>
-      </c>
-      <c r="H8" s="59">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="59">
-        <v>1</v>
-      </c>
-      <c r="J8" s="59">
-        <v>77</v>
-      </c>
-      <c r="K8" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69">
-        <v>1</v>
-      </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AC8" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD8" s="76">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="76">
-        <v>1000</v>
-      </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="68" t="str">
+      <c r="AI8" s="69" t="str">
         <f t="shared" ref="AI8:AI10" si="0">"{{type=1,id=201106,count="&amp;AD8&amp;"}}"</f>
         <v>{{type=1,id=201106,count=1}}</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="58">
+    <row r="9" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A9" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="59">
         <v>5002</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="59">
         <v>2</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="60">
         <v>3</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="59">
         <v>0</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="61">
         <v>2</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="60">
         <v>3888</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="60">
         <v>8000</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="60">
         <v>1</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="60">
         <v>48</v>
       </c>
-      <c r="K9" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69">
+      <c r="K9" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70">
         <v>1</v>
       </c>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AC9" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD9" s="76">
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AC9" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD9" s="77">
         <v>4</v>
       </c>
-      <c r="AE9" s="76">
+      <c r="AE9" s="77">
         <v>4000</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76">
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77">
         <v>0</v>
       </c>
-      <c r="AI9" s="68" t="str">
+      <c r="AI9" s="69" t="str">
         <f t="shared" si="0"/>
         <v>{{type=1,id=201106,count=4}}</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="58">
+    <row r="10" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A10" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="59">
         <v>5002</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="59">
         <v>3</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="59">
         <v>0</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="61">
         <v>2</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="60">
         <v>8888</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="60">
         <v>11998</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="60">
         <v>5</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="60">
         <v>74</v>
       </c>
-      <c r="K10" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69">
+      <c r="K10" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70">
         <v>1</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AC10" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD10" s="76">
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AC10" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD10" s="77">
         <v>8</v>
       </c>
-      <c r="AE10" s="76">
+      <c r="AE10" s="77">
         <v>8000</v>
       </c>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76">
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77">
         <v>0</v>
       </c>
-      <c r="AI10" s="68" t="str">
+      <c r="AI10" s="69" t="str">
         <f t="shared" si="0"/>
         <v>{{type=1,id=201106,count=8}}</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="58">
+    <row r="11" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A11" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="59">
         <v>5002</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="59">
         <v>4</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="59">
         <v>0</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="61">
         <v>2</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="60">
         <v>18888</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="60">
         <v>21996</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="60">
         <v>5</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="60">
         <v>85</v>
       </c>
-      <c r="K11" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69">
+      <c r="K11" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70">
         <v>1</v>
       </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AC11" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD11" s="76">
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AC11" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD11" s="77">
         <v>1</v>
       </c>
-      <c r="AE11" s="76">
+      <c r="AE11" s="77">
         <v>9998</v>
       </c>
-      <c r="AF11" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG11" s="76">
+      <c r="AF11" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG11" s="77">
         <v>2</v>
       </c>
-      <c r="AH11" s="76">
+      <c r="AH11" s="77">
         <v>2000</v>
       </c>
-      <c r="AI11" s="68" t="str">
+      <c r="AI11" s="69" t="str">
         <f t="shared" ref="AI11:AI12" si="1">"{{type=1,id=201107,count="&amp;AD11&amp;"},{type=1,id=201106,count="&amp;AG11&amp;"}}"</f>
         <v>{{type=1,id=201107,count=1},{type=1,id=201106,count=2}}</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="61">
+    <row r="12" s="28" customFormat="1" ht="17.25" spans="1:35">
+      <c r="A12" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="62">
         <v>5002</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="62">
         <v>5</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="63">
         <v>0</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="62">
         <v>0</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="64">
         <v>2</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="63">
         <v>12888</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="63">
         <v>56250</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="63">
         <v>1</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="63">
         <v>22</v>
       </c>
-      <c r="K12" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72">
+      <c r="K12" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73">
         <v>1</v>
       </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AC12" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD12" s="79">
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AC12" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD12" s="80">
         <v>1</v>
       </c>
-      <c r="AE12" s="79">
+      <c r="AE12" s="80">
         <v>9998</v>
       </c>
-      <c r="AF12" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG12" s="79">
+      <c r="AF12" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG12" s="80">
         <v>7</v>
       </c>
-      <c r="AH12" s="79">
+      <c r="AH12" s="80">
         <v>7000</v>
       </c>
-      <c r="AI12" s="71" t="str">
+      <c r="AI12" s="72" t="str">
         <f t="shared" si="1"/>
         <v>{{type=1,id=201107,count=1},{type=1,id=201106,count=7}}</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="58">
+    <row r="13" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A13" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="59">
         <v>5005</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="59">
         <v>1</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="60">
         <v>0</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="59">
         <v>0</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="61">
         <v>2</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="60">
         <v>888</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="60">
         <v>1600</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="60">
         <v>9</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="60">
         <v>55</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70">
+        <v>1</v>
+      </c>
+      <c r="N13" s="70"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AC13" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69">
+      <c r="AD13" s="77">
         <v>1</v>
       </c>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AC13" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD13" s="76">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="76">
+      <c r="AE13" s="77">
         <v>1000</v>
       </c>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76">
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77">
         <v>0</v>
       </c>
-      <c r="AI13" s="68" t="str">
+      <c r="AI13" s="69" t="str">
         <f t="shared" ref="AI13:AI15" si="2">"{{type=1,id=201106,count="&amp;AD13&amp;"}}"</f>
         <v>{{type=1,id=201106,count=1}}</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="58">
+    <row r="14" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="59">
         <v>5005</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="59">
         <v>2</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="60">
         <v>2</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="59">
         <v>0</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="61">
         <v>2</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="60">
         <v>1588</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="60">
         <v>4800</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="60">
         <v>3</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="60">
         <v>33</v>
       </c>
-      <c r="K14" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69">
+      <c r="K14" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70">
         <v>1</v>
       </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AC14" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD14" s="76">
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AC14" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD14" s="77">
         <v>4</v>
       </c>
-      <c r="AE14" s="76">
+      <c r="AE14" s="77">
         <v>4000</v>
       </c>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76">
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77">
         <v>0</v>
       </c>
-      <c r="AI14" s="68" t="str">
+      <c r="AI14" s="69" t="str">
         <f t="shared" si="2"/>
         <v>{{type=1,id=201106,count=4}}</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="58">
+    <row r="15" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A15" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="59">
         <v>5005</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="59">
         <v>3</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="60">
         <v>0</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="59">
         <v>0</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="61">
         <v>2</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="60">
         <v>2888</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="60">
         <v>5600</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="60">
         <v>9</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="60">
         <v>51</v>
       </c>
-      <c r="K15" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69">
+      <c r="K15" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70">
         <v>1</v>
       </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AC15" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD15" s="76">
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AC15" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD15" s="77">
         <v>8</v>
       </c>
-      <c r="AE15" s="76">
+      <c r="AE15" s="77">
         <v>8000</v>
       </c>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76">
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77">
         <v>0</v>
       </c>
-      <c r="AI15" s="68" t="str">
+      <c r="AI15" s="69" t="str">
         <f t="shared" si="2"/>
         <v>{{type=1,id=201106,count=8}}</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="58">
+    <row r="16" s="27" customFormat="1" ht="16.5" spans="1:35">
+      <c r="A16" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="59">
         <v>5005</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="59">
         <v>4</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="60">
         <v>0</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="59">
         <v>0</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="60">
         <v>8888</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="60">
         <v>16000</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="60">
         <v>20</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="60">
         <v>55</v>
       </c>
-      <c r="K16" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69">
+      <c r="K16" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70">
         <v>1</v>
       </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AC16" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD16" s="76">
+      <c r="N16" s="70"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AC16" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD16" s="77">
         <v>1</v>
       </c>
-      <c r="AE16" s="76">
+      <c r="AE16" s="77">
         <v>9998</v>
       </c>
-      <c r="AF16" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG16" s="76">
+      <c r="AF16" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG16" s="77">
         <v>2</v>
       </c>
-      <c r="AH16" s="76">
+      <c r="AH16" s="77">
         <v>2000</v>
       </c>
-      <c r="AI16" s="68" t="str">
+      <c r="AI16" s="69" t="str">
         <f t="shared" ref="AI16" si="3">"{{type=1,id=201107,count="&amp;AD16&amp;"},{type=1,id=201106,count="&amp;AG16&amp;"}}"</f>
         <v>{{type=1,id=201107,count=1},{type=1,id=201106,count=2}}</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="49.25" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4280,16 +4837,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
@@ -4300,7 +4857,7 @@
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -4312,110 +4869,110 @@
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="39" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
       <c r="A5" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
       <c r="A6" s="42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="E6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="16.5" spans="1:11">
       <c r="A8" s="43" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B8" s="44">
         <v>5001</v>
@@ -4433,10 +4990,10 @@
         <v>1000</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I8" s="44">
         <v>6</v>
@@ -4444,9 +5001,9 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" s="27" customFormat="1" ht="16.5" spans="1:11">
       <c r="A9" s="43" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B9" s="44">
         <v>5001</v>
@@ -4464,10 +5021,10 @@
         <v>3000</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I9" s="44">
         <v>6</v>
@@ -4475,9 +5032,9 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" s="28" customFormat="1" ht="17.25" spans="1:11">
       <c r="A10" s="48" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B10" s="49">
         <v>5001</v>
@@ -4495,20 +5052,20 @@
         <v>10000</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I10" s="49">
         <v>6</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="117" t="s">
-        <v>202</v>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" s="27" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A11" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="44">
         <v>5006</v>
@@ -4526,10 +5083,10 @@
         <v>3000</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="I11" s="44">
         <v>6</v>
@@ -4537,9 +5094,9 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="117" t="s">
-        <v>202</v>
+    <row r="12" s="27" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A12" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="44">
         <v>5006</v>
@@ -4557,10 +5114,10 @@
         <v>8000</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="I12" s="44">
         <v>6</v>
@@ -4568,9 +5125,9 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
-        <v>202</v>
+    <row r="13" s="28" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A13" s="53" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="44">
         <v>5006</v>
@@ -4588,34 +5145,35 @@
         <v>20000</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="I13" s="49">
         <v>6</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="32.375" customWidth="1"/>
@@ -4624,7 +5182,7 @@
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" ht="16.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4636,7 +5194,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -4647,12 +5205,12 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="16.5" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
@@ -4670,7 +5228,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4689,18 +5247,18 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="16.5" spans="1:13">
       <c r="A4" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="6"/>
@@ -4712,123 +5270,123 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="14.25" spans="1:12">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:12">
       <c r="A6" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:12">
       <c r="A7" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:12">
       <c r="A8" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="19">
         <v>5004</v>
@@ -4843,7 +5401,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="21"/>
@@ -4851,12 +5409,12 @@
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" s="19">
         <v>5004</v>
@@ -4867,10 +5425,10 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="22" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="H9" s="21">
         <v>365</v>
@@ -4879,9 +5437,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" s="19">
         <v>5004</v>
@@ -4892,19 +5450,19 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="22" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" s="19">
         <v>5004</v>
@@ -4915,19 +5473,19 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="22" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="19">
         <v>5004</v>
@@ -4938,19 +5496,19 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="22" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" s="19">
         <v>5004</v>
@@ -4961,19 +5519,19 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="22" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" s="19">
         <v>5004</v>
@@ -4984,10 +5542,10 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="22" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H14" s="21">
         <v>366</v>
@@ -4996,9 +5554,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="19">
         <v>5004</v>
@@ -5009,19 +5567,19 @@
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="22" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B16" s="19">
         <v>5004</v>
@@ -5032,19 +5590,19 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="22" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" s="19">
         <v>5004</v>
@@ -5055,19 +5613,19 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>189</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" ht="17.25" spans="1:9">
       <c r="A18" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" s="19">
         <v>5004</v>
@@ -5078,19 +5636,20 @@
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="23">
         <v>4</v>
       </c>
     </row>
+    <row r="19" ht="14.25"/>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/导表工具/H-个人活动配置.xlsx
+++ b/导表工具/H-个人活动配置.xlsx
@@ -486,7 +486,7 @@
     <t>"biaoti_leichongfanli"</t>
   </si>
   <si>
-    <t>"new_new_icon_xiangoulibao_pnglibao_png"</t>
+    <t>"new_icon_xiangoulibao_png"</t>
   </si>
   <si>
     <t>"biaoti_xiangou"</t>
@@ -912,11 +912,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,14 +1142,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1164,8 +1156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,22 +1171,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,38 +1208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,21 +1230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1282,8 +1238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,10 +1255,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1402,43 +1395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,13 +1425,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,13 +1497,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,91 +1557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,26 +1746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1788,6 +1761,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1799,30 +1781,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1845,6 +1803,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1858,10 +1851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1873,139 +1866,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3167,7 +3160,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/导表工具/H-个人活动配置.xlsx
+++ b/导表工具/H-个人活动配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动总表" sheetId="1" r:id="rId1"/>
@@ -911,12 +911,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,6 +1060,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
@@ -1068,8 +1074,27 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1142,6 +1167,102 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1149,8 +1270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,20 +1286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1186,63 +1294,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1255,37 +1317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,7 +1334,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1395,7 +1427,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799676503799554"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,19 +1589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,139 +1613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,17 +1784,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,6 +1832,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1799,50 +1881,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1851,158 +1889,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2311,16 +2349,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,124 +2373,136 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2527,7 +2577,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2809,222 +2859,222 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="16.125" style="53" customWidth="1"/>
     <col min="2" max="2" width="9" style="53"/>
-    <col min="3" max="4" width="9" style="124"/>
-    <col min="5" max="5" width="15.125" style="124" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="124" customWidth="1"/>
-    <col min="7" max="7" width="9" style="124"/>
-    <col min="8" max="8" width="14.25" style="124" customWidth="1"/>
-    <col min="9" max="9" width="38.875" style="124" customWidth="1"/>
+    <col min="3" max="4" width="9" style="126"/>
+    <col min="5" max="5" width="15.125" style="126" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="126" customWidth="1"/>
+    <col min="7" max="7" width="9" style="126"/>
+    <col min="8" max="8" width="14.25" style="126" customWidth="1"/>
+    <col min="9" max="9" width="38.875" style="126" customWidth="1"/>
     <col min="10" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:6">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="127"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" ht="12.75" spans="1:6">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="132"/>
+      <c r="F2" s="134"/>
     </row>
     <row r="3" ht="12.75" spans="1:6">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="133">
+      <c r="B3" s="135">
         <v>1</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="143" t="s">
+      <c r="J5" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="144" t="s">
+      <c r="K5" s="148" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F6" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="137" t="s">
+      <c r="H6" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="137" t="s">
+      <c r="J6" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="149" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="146" t="s">
+      <c r="K7" s="150" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="122" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A8" s="138" t="s">
+    <row r="8" s="124" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A8" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="110">
+      <c r="B8" s="141">
         <v>5001</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="E8" s="124">
+      <c r="C8" s="126"/>
+      <c r="E8" s="126">
         <v>7</v>
       </c>
-      <c r="F8" s="139">
+      <c r="F8" s="142">
         <v>3</v>
       </c>
-      <c r="G8" s="124">
+      <c r="G8" s="126">
         <v>1</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="126">
         <v>72</v>
       </c>
-      <c r="I8" s="147" t="s">
+      <c r="I8" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="147" t="s">
+      <c r="J8" s="151" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" s="123" customFormat="1" ht="17.25" spans="1:10">
-      <c r="A9" s="140" t="s">
+    <row r="9" s="125" customFormat="1" ht="17.25" spans="1:10">
+      <c r="A9" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="114">
+      <c r="B9" s="144">
         <v>5002</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="E9" s="141">
+      <c r="C9" s="145"/>
+      <c r="E9" s="145">
         <v>7</v>
       </c>
-      <c r="F9" s="142">
+      <c r="F9" s="146">
         <v>2</v>
       </c>
-      <c r="G9" s="141">
+      <c r="G9" s="145">
         <v>1</v>
       </c>
-      <c r="H9" s="141">
+      <c r="H9" s="145">
         <v>72</v>
       </c>
-      <c r="I9" s="148" t="s">
+      <c r="I9" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="148" t="s">
+      <c r="J9" s="152" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3035,25 +3085,25 @@
       <c r="B10" s="53">
         <v>5003</v>
       </c>
-      <c r="D10" s="124">
+      <c r="D10" s="126">
         <v>15</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="126">
         <v>5</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F10" s="126">
         <v>1</v>
       </c>
-      <c r="G10" s="124">
+      <c r="G10" s="126">
         <v>1</v>
       </c>
-      <c r="H10" s="124">
+      <c r="H10" s="126">
         <v>72</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="J10" s="126" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3064,85 +3114,85 @@
       <c r="B11" s="53">
         <v>5004</v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="126">
         <v>15</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="126">
         <v>5</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F11" s="126">
         <v>9</v>
       </c>
-      <c r="G11" s="124">
+      <c r="G11" s="126">
         <v>1</v>
       </c>
-      <c r="H11" s="124">
+      <c r="H11" s="126">
         <v>72</v>
       </c>
-      <c r="I11" s="124" t="s">
+      <c r="I11" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="124" t="s">
+      <c r="J11" s="126" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="123" customFormat="1" ht="12.75" spans="1:10">
+    <row r="12" s="125" customFormat="1" ht="12.75" spans="1:10">
       <c r="A12" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="53">
         <v>5005</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141">
+      <c r="C12" s="145"/>
+      <c r="D12" s="145">
         <v>15</v>
       </c>
-      <c r="E12" s="141">
+      <c r="E12" s="145">
         <v>5</v>
       </c>
-      <c r="F12" s="142">
+      <c r="F12" s="146">
         <v>2</v>
       </c>
-      <c r="G12" s="141">
+      <c r="G12" s="145">
         <v>1</v>
       </c>
-      <c r="H12" s="141">
+      <c r="H12" s="145">
         <v>72</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="148" t="s">
+      <c r="J12" s="152" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" s="123" customFormat="1" ht="12.75" spans="1:10">
+    <row r="13" s="125" customFormat="1" ht="12.75" spans="1:10">
       <c r="A13" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="53">
         <v>5006</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141">
+      <c r="C13" s="145"/>
+      <c r="D13" s="145">
         <v>15</v>
       </c>
-      <c r="E13" s="141">
+      <c r="E13" s="145">
         <v>5</v>
       </c>
-      <c r="F13" s="142">
+      <c r="F13" s="146">
         <v>3</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="145">
         <v>1</v>
       </c>
-      <c r="H13" s="141">
+      <c r="H13" s="145">
         <v>72</v>
       </c>
-      <c r="I13" s="148" t="s">
+      <c r="I13" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="148" t="s">
+      <c r="J13" s="152" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3160,7 +3210,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A8" sqref="$A8:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3396,60 +3446,60 @@
       <c r="L9" s="115"/>
     </row>
     <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="118">
         <v>5003</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="119">
         <v>4</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="119">
         <v>1</v>
       </c>
-      <c r="G10" s="118">
+      <c r="G10" s="119">
         <v>1</v>
       </c>
-      <c r="I10" s="118">
+      <c r="I10" s="119">
         <v>1</v>
       </c>
-      <c r="K10" s="118">
+      <c r="K10" s="119">
         <v>1</v>
       </c>
     </row>
     <row r="11" s="103" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="120">
+      <c r="B11" s="121">
         <v>5004</v>
       </c>
-      <c r="C11" s="121">
+      <c r="C11" s="122">
         <v>5</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="122">
         <v>9</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="122">
         <v>1</v>
       </c>
-      <c r="I11" s="121">
+      <c r="I11" s="122">
         <v>1</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="122">
         <v>1</v>
       </c>
     </row>
@@ -3486,7 +3536,7 @@
       <c r="L12" s="115"/>
     </row>
     <row r="13" s="101" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="118" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="110">
